--- a/Documentation/Journal de bord MPI.xlsx
+++ b/Documentation/Journal de bord MPI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.pedroletti\Documents\Nouveau dossier\PreTPI\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\Programmation\PreTPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A77B6-E938-4F15-9188-26FC381B1EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50685" yWindow="-10740" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="3525" yWindow="3510" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -119,22 +120,28 @@
     <t>Réflexion et correction relation table pièces-défauts</t>
   </si>
   <si>
-    <t>Mise en place de la base de données</t>
-  </si>
-  <si>
     <t>Correction du MLD champ mdp oublié dans table utilisateur</t>
   </si>
   <si>
     <t>Mise en place du login sécurisé</t>
   </si>
   <si>
-    <t>Création de comptes</t>
+    <t>Création du script SQL permettant la création de la base de données et création de la base de données</t>
+  </si>
+  <si>
+    <t>Correction du login sécurisé petite erreur fait dans le code.</t>
+  </si>
+  <si>
+    <t>Mise à jour de la documentation ajout de différents éléments</t>
+  </si>
+  <si>
+    <t>Fonction de récupération des données - nom de la tâche référence aux 3 fonctions d'affichage dans la carte du même nom dans trello</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;minutes&quot;"/>
   </numFmts>
@@ -525,13 +532,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C2:F80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="C2:F80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
-    <tableColumn id="3" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" name="Temps" dataDxfId="1"/>
-    <tableColumn id="5" name="Description supplémentaire" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Temps" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description supplémentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -799,14 +806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,51 +1109,87 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D21" s="8">
         <v>44238</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9">
+        <v>10</v>
+      </c>
       <c r="F21" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
+    <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8">
+        <v>44238</v>
+      </c>
+      <c r="E22" s="9">
+        <v>200</v>
+      </c>
       <c r="F22" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44238</v>
+      </c>
+      <c r="E23" s="9">
+        <v>60</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44239</v>
+      </c>
+      <c r="E24" s="9">
+        <v>15</v>
+      </c>
       <c r="F24" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="19"/>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8">
+        <v>44239</v>
+      </c>
+      <c r="E25" s="9">
+        <v>100</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="8">
+        <v>44239</v>
+      </c>
+      <c r="E26" s="9">
+        <v>65</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="7"/>

--- a/Documentation/Journal de bord MPI.xlsx
+++ b/Documentation/Journal de bord MPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\Programmation\PreTPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A77B6-E938-4F15-9188-26FC381B1EE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50267D21-DF65-42CC-85E2-AB886EEE75DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="3510" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40665" yWindow="5385" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +136,51 @@
   </si>
   <si>
     <t>Fonction de récupération des données - nom de la tâche référence aux 3 fonctions d'affichage dans la carte du même nom dans trello</t>
+  </si>
+  <si>
+    <t>Mise à jour du journal de travail</t>
+  </si>
+  <si>
+    <t>Mise à jour de la documentation ajout de différents éléments comme l'arborescence du site</t>
+  </si>
+  <si>
+    <t>Correction du fichier de requête</t>
+  </si>
+  <si>
+    <t>Modification du MLD</t>
+  </si>
+  <si>
+    <t>Ajout d'élément dans la documentation arborescence du site en mode admin se référer au trello pour plus d'info</t>
+  </si>
+  <si>
+    <t>Avancement dans les wireframes des différentes pages</t>
+  </si>
+  <si>
+    <t>Réalisation de la base de la page liste globale</t>
+  </si>
+  <si>
+    <t>Finalisation des wireframes et ajout des dits wireframes à la documentation</t>
+  </si>
+  <si>
+    <t>Ajout d'une petite précision en dessous du MLD pour une meilleure compréhension de la base de données</t>
+  </si>
+  <si>
+    <t>Fin de la page d'affichage globale avec correction des requêtes vers la base de données et commencement du formulaire pour le contrôle des abris</t>
+  </si>
+  <si>
+    <t>Modification de la maquette de la page d'accueil</t>
+  </si>
+  <si>
+    <t>Correction du formulaire pour le contrôle des abris et amélioration du fonctionnement de l'ajout de défauts pour rendre plus dynamique</t>
+  </si>
+  <si>
+    <t>Apprentissage</t>
+  </si>
+  <si>
+    <t>Apprendre et comprendre comment fonctionne l'AJAX</t>
+  </si>
+  <si>
+    <t>Correction sur le formulaire pour le CPA tentative d'intégration de l'AJAX au formulaire</t>
   </si>
 </sst>
 </file>
@@ -812,8 +857,8 @@
   </sheetPr>
   <dimension ref="B1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,89 +1236,201 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19"/>
+    <row r="27" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E27" s="9">
+        <v>20</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E28" s="9">
+        <v>15</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="19"/>
+      <c r="C29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E29" s="9">
+        <v>15</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="19"/>
+      <c r="C30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E30" s="9">
+        <v>25</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E31" s="9">
+        <v>15</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E32" s="9">
+        <v>15</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="19"/>
+      <c r="C33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="8">
+        <v>44242</v>
+      </c>
+      <c r="E33" s="9">
+        <v>75</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="19"/>
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8">
+        <v>44244</v>
+      </c>
+      <c r="E34" s="9">
+        <v>45</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="8">
+        <v>44245</v>
+      </c>
+      <c r="E35" s="9">
+        <v>15</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="8">
+        <v>44245</v>
+      </c>
+      <c r="E36" s="9">
+        <v>150</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="19"/>
+      <c r="C37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8">
+        <v>44245</v>
+      </c>
+      <c r="E37" s="9">
+        <v>15</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="8">
+        <v>44245</v>
+      </c>
+      <c r="E38" s="9">
+        <v>135</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="19"/>
+      <c r="C39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="8">
+        <v>44246</v>
+      </c>
+      <c r="E39" s="9">
+        <v>90</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="8">
+        <v>44246</v>
+      </c>
+      <c r="E40" s="9">
+        <v>90</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="7"/>

--- a/Documentation/Journal de bord MPI.xlsx
+++ b/Documentation/Journal de bord MPI.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\Programmation\PreTPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50267D21-DF65-42CC-85E2-AB886EEE75DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76597E62-4B86-45B6-BBF7-3999B04F0A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40665" yWindow="5385" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -181,6 +190,39 @@
   </si>
   <si>
     <t>Correction sur le formulaire pour le CPA tentative d'intégration de l'AJAX au formulaire</t>
+  </si>
+  <si>
+    <t>Réparation du visuel du formulaire pour le CPA, mise en non dynamique</t>
+  </si>
+  <si>
+    <t>Mise à jour du MLD pour correspondre à des nouvelles attentes, possibilités de définir des types de défauts possibles dans une pièce</t>
+  </si>
+  <si>
+    <t>Mise à jour de la base de données</t>
+  </si>
+  <si>
+    <t>Téléchargement modification visuel du logo, puis intégration du logo sur la plateforme web</t>
+  </si>
+  <si>
+    <t>Ajout de données à la base de données pour les défauts possibles d'avoir dans les pièces</t>
+  </si>
+  <si>
+    <t>Création de l'affichage nécessaire à l'affichage des options de tri sur la page liste global, plus amélioration de la mise en page. J'ai fait en sorte que je puisse réutiliser simplement cette mise en page sur les prochaines listes</t>
+  </si>
+  <si>
+    <t>Création des scripts nécessaire pour que les tris dans les listes soient fonctionnels. J'ai à nouveau fait en sorte que je n'ai pas besoin de recréer de fonction pour les prochaines listes. Pour le code je me suis inspiré d'un projet passé, mais j'ai dû faire beaucoup de modification pour que ça fonctionne correctement et enlevé le code non nécessaire</t>
+  </si>
+  <si>
+    <t>Modification visuel du formulaire des contrôles des abris</t>
+  </si>
+  <si>
+    <t>Réparation de la fonction d'ajout sur les pièces dans le formulaire du contrôles des abris, j'ai dû trouver un moyen pour différencier les différents champs, ce qui m'a pris pas mal de temps</t>
+  </si>
+  <si>
+    <t>Préparation des champs sur le formulaire des visites du contrôles des abris pour la sauvegarde des données</t>
+  </si>
+  <si>
+    <t>Création de la fonction permettant la sauvegarde des données du formulaire des visites du contrôles des abris</t>
   </si>
 </sst>
 </file>
@@ -386,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -441,6 +483,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,10 +901,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F81"/>
+  <dimension ref="B1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +917,7 @@
     <col min="6" max="6" width="74" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1110,7 +1157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1124,7 +1171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
@@ -1152,7 +1199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1213,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
@@ -1180,7 +1227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1269,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
@@ -1236,7 +1283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1310,10 @@
       <c r="F28" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="21"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1277,8 +1326,9 @@
       <c r="F29" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
@@ -1433,76 +1483,164 @@
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="19"/>
+      <c r="C41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="8">
+        <v>44256</v>
+      </c>
+      <c r="E41" s="9">
+        <v>120</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8">
+        <v>44256</v>
+      </c>
+      <c r="E42" s="9">
+        <v>25</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="19"/>
+      <c r="C43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="8">
+        <v>44256</v>
+      </c>
+      <c r="E43" s="9">
+        <v>35</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="8">
+        <v>44258</v>
+      </c>
+      <c r="E44" s="9">
+        <v>20</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="8">
+        <v>44258</v>
+      </c>
+      <c r="E45" s="9">
+        <v>25</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="8">
+        <v>44259</v>
+      </c>
+      <c r="E46" s="9">
+        <v>120</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="8">
+        <v>44259</v>
+      </c>
+      <c r="E47" s="9">
+        <v>165</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="8">
+        <v>44259</v>
+      </c>
+      <c r="E48" s="9">
+        <v>30</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="19"/>
+      <c r="C49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="8">
+        <v>44260</v>
+      </c>
+      <c r="E49" s="9">
+        <v>15</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="8">
+        <v>44260</v>
+      </c>
+      <c r="E50" s="9">
+        <v>45</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="8">
+        <v>44260</v>
+      </c>
+      <c r="E51" s="9">
+        <v>120</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="7"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="19"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="7"/>
@@ -1680,7 +1818,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="152" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="152" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Documentation/Journal de bord MPI.xlsx
+++ b/Documentation/Journal de bord MPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\Programmation\PreTPI\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpedroletti/Documents/PréTPI/PreTPI/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76597E62-4B86-45B6-BBF7-3999B04F0A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844CFA4-5CE6-FE48-B0F6-53B3E5D85B21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-7320" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -223,6 +223,27 @@
   </si>
   <si>
     <t>Création de la fonction permettant la sauvegarde des données du formulaire des visites du contrôles des abris</t>
+  </si>
+  <si>
+    <t>remodellement d'une partie des maquettes graphiques pour faire en sorte quelles correspondent aux attentes du client et ajout d'un fichier PDF permettant une "naviguation" directement depuis le PDF</t>
+  </si>
+  <si>
+    <t>Commencement de la page de liste des abris ayant besoin d'une visite</t>
+  </si>
+  <si>
+    <t>Fin de la page de liste des abris ayant besoin d'une visite, ajout des fonctions de tri d'affichage pour la liste</t>
+  </si>
+  <si>
+    <t>Fonction de récupération des données permettant l'affichage des abris nécessitant une visite</t>
+  </si>
+  <si>
+    <t>Fonction d'envoie d'email avec différentes fonctionnalités comme l'ajout d'un modal permettant la sélection de la date par l'utilisateur voulant envoyer l'avis de visite au responsable de l'abris et création d'une fonction réservée pour l'envoie des avis de visites, préparation du terrain pour les avis de contre visite</t>
+  </si>
+  <si>
+    <t>Discussion avec le chef de projet sur l'avancement général du projet sprint review et revue de différents point à améliorer, pour plus d'info concernant les points à améliorer se réferrer au trello, discussion par rapport à la prochaine fonctionnalité de la page de statistique, possible éléments utiliser highcharts.com</t>
+  </si>
+  <si>
+    <t>Modification de la documentation plus précisement les cas d'utilisation, modificaiton ajoutée afin de répondre aux attentes du chef de projet, ajout d'élément, mais n'est pas encore terminé et préparation pour le rendu de la semaine</t>
   </si>
 </sst>
 </file>
@@ -527,7 +548,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -904,24 +925,24 @@
   <dimension ref="B1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
     <col min="6" max="6" width="74" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -938,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -955,7 +976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -972,7 +993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -989,7 +1010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1003,7 +1024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1087,7 +1108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1101,7 +1122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1143,7 +1164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1185,7 +1206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
@@ -1199,7 +1220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:15" ht="32" x14ac:dyDescent="0.2">
       <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
@@ -1227,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1255,7 +1276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1269,7 +1290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" ht="32" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
@@ -1283,7 +1304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
@@ -1313,7 +1334,7 @@
       <c r="H28" s="21"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1328,7 +1349,7 @@
       </c>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" ht="32" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="7" t="s">
         <v>28</v>
       </c>
@@ -1384,7 +1405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
@@ -1398,7 +1419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1461,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C38" s="7" t="s">
         <v>28</v>
       </c>
@@ -1454,7 +1475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="7" t="s">
         <v>49</v>
       </c>
@@ -1468,7 +1489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1482,7 +1503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C42" s="7" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C44" s="7" t="s">
         <v>28</v>
       </c>
@@ -1538,7 +1559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1552,7 +1573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C46" s="7" t="s">
         <v>28</v>
       </c>
@@ -1566,7 +1587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" ht="64" x14ac:dyDescent="0.2">
       <c r="C47" s="7" t="s">
         <v>28</v>
       </c>
@@ -1580,7 +1601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1594,7 +1615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="C49" s="7" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C50" s="7" t="s">
         <v>28</v>
       </c>
@@ -1622,7 +1643,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C51" s="7" t="s">
         <v>28</v>
       </c>
@@ -1636,181 +1657,237 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="C52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8">
+        <v>44263</v>
+      </c>
+      <c r="E52" s="9">
+        <v>180</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="8">
+        <v>44265</v>
+      </c>
+      <c r="E53" s="9">
+        <v>45</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="8">
+        <v>44266</v>
+      </c>
+      <c r="E54" s="9">
+        <v>45</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="8">
+        <v>44266</v>
+      </c>
+      <c r="E55" s="9">
+        <v>30</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="C56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="8">
+        <v>44266</v>
+      </c>
+      <c r="E56" s="9">
+        <v>240</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="C57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="8">
+        <v>44267</v>
+      </c>
+      <c r="E57" s="9">
+        <v>75</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="C58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8">
+        <v>44267</v>
+      </c>
+      <c r="E58" s="9">
+        <v>105</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
       <c r="E60" s="9"/>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="7"/>
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
       <c r="F61" s="19"/>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="7"/>
       <c r="D62" s="8"/>
       <c r="E62" s="9"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="7"/>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="7"/>
       <c r="D64" s="8"/>
       <c r="E64" s="9"/>
       <c r="F64" s="19"/>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C65" s="7"/>
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="F65" s="19"/>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C66" s="7"/>
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="F66" s="19"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C67" s="7"/>
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="F67" s="19"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C68" s="7"/>
       <c r="D68" s="8"/>
       <c r="E68" s="9"/>
       <c r="F68" s="19"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C69" s="7"/>
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
       <c r="F69" s="19"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="7"/>
       <c r="D70" s="8"/>
       <c r="E70" s="9"/>
       <c r="F70" s="19"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C71" s="7"/>
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
       <c r="F71" s="19"/>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C72" s="7"/>
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="F72" s="19"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C73" s="7"/>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="F73" s="19"/>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C74" s="7"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C75" s="7"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
       <c r="F75" s="19"/>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C76" s="7"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="F76" s="19"/>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
       <c r="F78" s="19"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
       <c r="F79" s="19"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="13"/>
       <c r="D81" s="14"/>
       <c r="E81" s="15"/>

--- a/Documentation/Journal de bord MPI.xlsx
+++ b/Documentation/Journal de bord MPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpedroletti/Documents/PréTPI/PreTPI/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A844CFA4-5CE6-FE48-B0F6-53B3E5D85B21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF822B3C-BAFF-E64C-A74F-996B63832934}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-7320" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-6820" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -244,6 +244,39 @@
   </si>
   <si>
     <t>Modification de la documentation plus précisement les cas d'utilisation, modificaiton ajoutée afin de répondre aux attentes du chef de projet, ajout d'élément, mais n'est pas encore terminé et préparation pour le rendu de la semaine</t>
+  </si>
+  <si>
+    <t>correction visuel pour les checkbox utilisée dans les formulaires de visite et contre visite CPA et création du script pour les rendre obligatoires</t>
+  </si>
+  <si>
+    <t>Correction de l'affichage des bouton d'envoie et d'annulation du formulaire CPA</t>
+  </si>
+  <si>
+    <t>Début des modifications nécessaires sur la base de données, suite à l'entretien et des décisions prises lors de cet entretien du 12.03.21, pour plus de précision se référer au trello</t>
+  </si>
+  <si>
+    <t>Fin des modifications nécessaires sur la base de données</t>
+  </si>
+  <si>
+    <t>Ajout de données à la base de données afin de pouvoir compléter la partie de réalisation suite au modificaiton apportée à la base de données</t>
+  </si>
+  <si>
+    <t>Modification du code afin de réparer les différentes erreures apparues suite aux modifications apportées à la base de données et mise en place d'amélioration rendue possible grâce à ces modification (exemple : nom affiché à la place de l'adresse mail)</t>
+  </si>
+  <si>
+    <t>Création de tous l'aspect visuel de la page dédiée au contre visite et création de la page dédié à lister les contres visites</t>
+  </si>
+  <si>
+    <t>Regroupement des pages de listes afin de toutes les intégrées dans la page de la liste globale, et ajout de toute la partie d'envoie de mail de permettant de contacter les responsables d'abris pour les contres visites</t>
+  </si>
+  <si>
+    <t>Modification des fonctions d'envoi de mail afin d'effectuer le changement de statut nécessaire en fonction de l'envoie du mail (exemple : abri en statut visite, envoie de mail, passage au statut visite planifiée)</t>
+  </si>
+  <si>
+    <t>Ajout d'éléments à la documentation 1 cas d'utilisation et modification de champ</t>
+  </si>
+  <si>
+    <t>Ajout de la fonction nécessaire pour la sauvegarde des visites dans la base de données afin de permettre d'afficher un historique par la suite.</t>
   </si>
 </sst>
 </file>
@@ -925,7 +958,7 @@
   <dimension ref="B1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,8 +974,8 @@
     <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -959,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -976,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1037,8 +1070,9 @@
       <c r="F7" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1052,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1755,71 +1789,159 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="19"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="19"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="19"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="19"/>
+    <row r="59" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="8">
+        <v>44270</v>
+      </c>
+      <c r="E59" s="9">
+        <v>120</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="8">
+        <v>44270</v>
+      </c>
+      <c r="E60" s="9">
+        <v>40</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="8">
+        <v>44270</v>
+      </c>
+      <c r="E61" s="9">
+        <v>20</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C62" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="8">
+        <v>44272</v>
+      </c>
+      <c r="E62" s="9">
+        <v>45</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C63" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="8">
+        <v>44273</v>
+      </c>
+      <c r="E63" s="9">
+        <v>75</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="8">
+        <v>44273</v>
+      </c>
+      <c r="E64" s="9">
+        <v>60</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="C65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="8">
+        <v>44273</v>
+      </c>
+      <c r="E65" s="9">
+        <v>65</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="C66" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="8">
+        <v>44273</v>
+      </c>
+      <c r="E66" s="9">
+        <v>110</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="C67" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="8">
+        <v>44274</v>
+      </c>
+      <c r="E67" s="9">
+        <v>75</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8">
+        <v>44274</v>
+      </c>
+      <c r="E68" s="9">
+        <v>15</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="8">
+        <v>44274</v>
+      </c>
+      <c r="E69" s="9">
+        <v>90</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C70" s="7"/>

--- a/Documentation/Journal de bord MPI.xlsx
+++ b/Documentation/Journal de bord MPI.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelpedroletti/Documents/PréTPI/PreTPI/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.pedroletti\Documents\Nouveau dossier\PreTPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF822B3C-BAFF-E64C-A74F-996B63832934}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6820" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-6825" windowWidth="38400" windowHeight="19395"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -277,12 +276,42 @@
   </si>
   <si>
     <t>Ajout de la fonction nécessaire pour la sauvegarde des visites dans la base de données afin de permettre d'afficher un historique par la suite.</t>
+  </si>
+  <si>
+    <t>Finalisation du projet, ajout d'élément dans la base de donnée pour pouvoir faire la démonstration. Finalisation de la documentation, dernière retouche.</t>
+  </si>
+  <si>
+    <t>Documentation + mise en place de l'environnement</t>
+  </si>
+  <si>
+    <t>Mise à jour MCD + MLD</t>
+  </si>
+  <si>
+    <t>Recherche de comment faire l'exportation en PDF. Mise en place d'une première version de la page de statistiques</t>
+  </si>
+  <si>
+    <t>Fin de la page de l'affichage de la page de statistiques</t>
+  </si>
+  <si>
+    <t>Ajout des fonctions pour aller récupérer les bonnes données pour la page de statistiques. Test des fonctionnalités disponibles de tri des statistiques et d'export en PDF. Ajout de la fonction de sauvegarde des contres visites et retouche du formulaire des contres visites</t>
+  </si>
+  <si>
+    <t>Début de la mise en place de l'affichage pour les nouveaux abris. Finalisation des maquettes graphiques. Réparation de plusieurs bugs graphique voir trello pour plus d'info</t>
+  </si>
+  <si>
+    <t>Réalisation + Documentation</t>
+  </si>
+  <si>
+    <t>Finalisation de la fonction de contre viste et de la fonction d'ajout de nouvel abris</t>
+  </si>
+  <si>
+    <t>réalisation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;minutes&quot;"/>
   </numFmts>
@@ -482,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -542,6 +571,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +613,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -677,13 +709,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C2:F80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="C2:F80"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tâche" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Temps" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description supplémentaire" dataDxfId="0"/>
+    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="3" name="Date" dataDxfId="2"/>
+    <tableColumn id="4" name="Temps" dataDxfId="1"/>
+    <tableColumn id="5" name="Description supplémentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -951,31 +983,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="74" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -992,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +1058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1072,7 +1104,7 @@
       </c>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1198,7 +1230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +1272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
@@ -1254,7 +1286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="3:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
         <v>13</v>
       </c>
@@ -1282,7 +1314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
@@ -1310,7 +1342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
@@ -1338,7 +1370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1384,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1400,7 @@
       <c r="H28" s="21"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
@@ -1383,7 +1415,7 @@
       </c>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="3:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="3:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="7" t="s">
         <v>9</v>
       </c>
@@ -1425,7 +1457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="7" t="s">
         <v>28</v>
       </c>
@@ -1439,7 +1471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="7" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
         <v>28</v>
       </c>
@@ -1481,7 +1513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C38" s="7" t="s">
         <v>28</v>
       </c>
@@ -1509,7 +1541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" s="7" t="s">
         <v>49</v>
       </c>
@@ -1523,7 +1555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1537,7 +1569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1551,7 +1583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C42" s="7" t="s">
         <v>9</v>
       </c>
@@ -1565,7 +1597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1579,7 +1611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C44" s="7" t="s">
         <v>28</v>
       </c>
@@ -1593,7 +1625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1607,7 +1639,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C46" s="7" t="s">
         <v>28</v>
       </c>
@@ -1621,7 +1653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C47" s="7" t="s">
         <v>28</v>
       </c>
@@ -1635,7 +1667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1649,7 +1681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="7" t="s">
         <v>28</v>
       </c>
@@ -1663,7 +1695,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C50" s="7" t="s">
         <v>28</v>
       </c>
@@ -1677,7 +1709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="7" t="s">
         <v>28</v>
       </c>
@@ -1691,7 +1723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C52" s="7" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +1737,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="7" t="s">
         <v>28</v>
       </c>
@@ -1719,7 +1751,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C54" s="7" t="s">
         <v>28</v>
       </c>
@@ -1733,7 +1765,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="7" t="s">
         <v>28</v>
       </c>
@@ -1747,7 +1779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C56" s="7" t="s">
         <v>28</v>
       </c>
@@ -1761,7 +1793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C57" s="7" t="s">
         <v>21</v>
       </c>
@@ -1775,7 +1807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C58" s="7" t="s">
         <v>9</v>
       </c>
@@ -1789,7 +1821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C59" s="7" t="s">
         <v>28</v>
       </c>
@@ -1803,7 +1835,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
         <v>28</v>
       </c>
@@ -1817,7 +1849,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="7" t="s">
         <v>28</v>
       </c>
@@ -1831,7 +1863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C62" s="7" t="s">
         <v>28</v>
       </c>
@@ -1845,7 +1877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="7" t="s">
         <v>28</v>
       </c>
@@ -1859,7 +1891,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C64" s="7" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C65" s="7" t="s">
         <v>28</v>
       </c>
@@ -1887,7 +1919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C66" s="7" t="s">
         <v>28</v>
       </c>
@@ -1901,7 +1933,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C67" s="7" t="s">
         <v>28</v>
       </c>
@@ -1915,7 +1947,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="7" t="s">
         <v>9</v>
       </c>
@@ -1929,7 +1961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C69" s="7" t="s">
         <v>28</v>
       </c>
@@ -1943,73 +1975,129 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C70" s="7"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C71" s="7"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="19"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="19"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="19"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="19"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="19"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C70" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="8">
+        <v>44277</v>
+      </c>
+      <c r="E70" s="9">
+        <v>180</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="8">
+        <v>44279</v>
+      </c>
+      <c r="E71" s="9">
+        <v>45</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C72" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="8">
+        <v>44280</v>
+      </c>
+      <c r="E72" s="9">
+        <v>315</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C73" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="8">
+        <v>44281</v>
+      </c>
+      <c r="E73" s="9">
+        <v>180</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C74" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="8">
+        <v>44284</v>
+      </c>
+      <c r="E74" s="9">
+        <v>180</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8">
+        <v>44286</v>
+      </c>
+      <c r="E75" s="9">
+        <v>45</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C76" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="8">
+        <v>44287</v>
+      </c>
+      <c r="E76" s="9">
+        <v>315</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="7"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="19"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="7"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
       <c r="F78" s="19"/>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
       <c r="F79" s="19"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="13"/>
       <c r="D81" s="14"/>
       <c r="E81" s="15"/>
